--- a/Version 2/Template.xlsx
+++ b/Version 2/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MJB\XML_Generator\Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5688447-8878-42F0-AADD-13CAB91D78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91139C-ADF2-45F6-8F9D-1F4B08BAFF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A0EB8ABC-5AE6-4DC2-85D2-58E771AFFD74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0EB8ABC-5AE6-4DC2-85D2-58E771AFFD74}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E51434C-34A6-49B5-A0B6-1B3A3398A412}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,58 +735,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
   </sheetData>
@@ -900,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851107F3-DEAE-4C3C-AA1F-B131BF1E9528}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
